--- a/Hardware/TSM.xlsx
+++ b/Hardware/TSM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B959BE-1AF4-DA44-8414-1759EAA15A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB45E09-2F5B-814D-8AE2-8482ECE13A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1936,9 +1936,11 @@
     <v>Powered by Refinitiv</v>
     <v>212.6</v>
     <v>91.6</v>
-    <v>1.1314</v>
-    <v>-2.54</v>
-    <v>-1.2975E-2</v>
+    <v>1.1237999999999999</v>
+    <v>7.97</v>
+    <v>4.1247999999999993E-2</v>
+    <v>0.16</v>
+    <v>7.9530000000000009E-4</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -1946,24 +1948,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>194.26</v>
+    <v>202.01</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45602.935102650001</v>
+    <v>45604.041567233595</v>
     <v>0</v>
-    <v>188.5</v>
-    <v>852997000000</v>
+    <v>196.25</v>
+    <v>861795700000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>192.04</v>
-    <v>30.688500000000001</v>
-    <v>195.76</v>
+    <v>196.31</v>
+    <v>31.934000000000001</v>
     <v>193.22</v>
+    <v>201.19</v>
+    <v>201.35</v>
     <v>5186547000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>18513</v>
-    <v>15161922</v>
+    <v>14865161</v>
+    <v>15508742</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -1995,6 +1998,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2015,6 +2020,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2031,7 +2037,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2042,13 +2048,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2114,13 +2123,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2165,6 +2180,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2172,6 +2190,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2872,14 +2893,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>193.22</v>
+        <v>201.19</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>9.566822188824835</v>
+        <v>9.6655043628451587</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2919,14 +2940,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.2975E-2</v>
+        <v>4.1247999999999993E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>23.501777104284336</v>
+        <v>23.744198925471828</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2967,14 +2988,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>852997000000</v>
+        <v>861795700000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.5628495762587677E-2</v>
+        <v>3.5264738498927299E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3016,7 +3037,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.1314</v>
+        <v>1.1237999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3049,7 +3070,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.30729765729918712</v>
+        <v>-0.3347385722120827</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Hardware/TSM.xlsx
+++ b/Hardware/TSM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB45E09-2F5B-814D-8AE2-8482ECE13A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2F2A8-6410-3245-A1A6-1B310CF62120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1935,12 +1935,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>212.6</v>
-    <v>91.6</v>
-    <v>1.1237999999999999</v>
-    <v>7.97</v>
-    <v>4.1247999999999993E-2</v>
-    <v>0.16</v>
-    <v>7.9530000000000009E-4</v>
+    <v>95.250100000000003</v>
+    <v>1.1225000000000001</v>
+    <v>2.2400000000000002</v>
+    <v>1.1948E-2</v>
+    <v>1.1299999999999999</v>
+    <v>5.9579999999999998E-3</v>
     <v>USD</v>
     <v>Taiwan Semiconductor Manufacturing Co Ltd is a Taiwan-based company mainly engaged in the provision of integrated circuit manufacturing services. The integrated circuit manufacturing services include process technology, special process technology, design ecosystem support, mask technology, 3DFabricTM advanced packaging and silicon stacking technology services. The Company has completed the transfer and mass production of 5nm technology, and is engaged in the research and development of 3nm process technology and 2nm process technology. The product application range covers the entire electronic application industry, including personal computers and peripheral products, information application products, wired and wireless communication system products, servers and data centers.</v>
     <v>52045</v>
@@ -1948,25 +1948,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
-    <v>202.01</v>
+    <v>190.02</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45604.041567233595</v>
+    <v>45616.041627661718</v>
     <v>0</v>
-    <v>196.25</v>
-    <v>861795700000</v>
+    <v>188.02</v>
+    <v>818231000000</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>196.31</v>
-    <v>31.934000000000001</v>
-    <v>193.22</v>
-    <v>201.19</v>
-    <v>201.35</v>
+    <v>189.13</v>
+    <v>30.113299999999999</v>
+    <v>187.48</v>
+    <v>189.72</v>
+    <v>190.8</v>
     <v>5186547000</v>
     <v>TSM</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (XNYS:TSM)</v>
-    <v>14865161</v>
-    <v>15508742</v>
+    <v>9390115</v>
+    <v>16109490</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2131,9 +2131,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2893,14 +2893,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>201.19</v>
+        <v>189.72</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>9.6655043628451587</v>
+        <v>9.1769027164038484</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2940,14 +2940,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.1247999999999993E-2</v>
+        <v>1.1948E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>23.744198925471828</v>
+        <v>22.54390411902466</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2988,14 +2988,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>861795700000</v>
+        <v>818231000000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.5264738498927299E-2</v>
+        <v>3.7142322889257437E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3037,7 +3037,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.1237999999999999</v>
+        <v>1.1225000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.3347385722120827</v>
+        <v>-0.29451851857130995</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
